--- a/biology/Botanique/Monstera/Monstera.xlsx
+++ b/biology/Botanique/Monstera/Monstera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Monstera comprend plus d'une centaine d'espèces de plantes épiphytes de la famille des Aracées, originaires des régions tropicales d'Amérique. Le monstera s'adapte au mi ombrage .
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lianes sempervirentes, pouvant grimper dans les arbres jusqu'à 20 m de hauteur. Ces lianes produisent des racines aériennes qui renforcent l'accrochage de la plante sur son support et qui peuvent aussi rejoindre le sol pour s'y replanter.
 </t>
@@ -542,9 +556,11 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les origines du nom du genre Monstera sont incertaines. On croit qu'il s'agit d'une dérivation obscure du latin monstrifer, faisant référence à l'énormité et aux perforations des feuilles de certaines espèces[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les origines du nom du genre Monstera sont incertaines. On croit qu'il s'agit d'une dérivation obscure du latin monstrifer, faisant référence à l'énormité et aux perforations des feuilles de certaines espèces,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (22 juillet 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (22 juillet 2023) :
 Monstera acacoyaguensis Matuda
 Monstera acuminata K. Koch
 Monstera adansonii Schott
@@ -620,10 +638,10 @@
 Monstera tuberculata Lundell
 Monstera vasquezii Croat
 Monstera xanthospatha Madison
-Selon ITIS      (22 juillet 2023)[4] :
+Selon ITIS      (22 juillet 2023) :
 Monstera adansonii Schott
 Monstera deliciosa Liebm.
-Selon NCBI  (22 juillet 2023)[5] :
+Selon NCBI  (22 juillet 2023) :
 Monstera acacoyaguensis Matuda, 1949
 Monstera acuminata K.Koch, 1855
 Monstera adansonii Schott
@@ -653,7 +671,7 @@
 Monstera tuberculata Lundell, 1939
 Monstera vasquezii Croat, 2005
 Monstera xanthospatha Madison, 1977
-Selon The Plant List            (22 juillet 2023)[6] :
+Selon The Plant List            (22 juillet 2023) :
 Monstera acacoyaguensis Matuda
 Monstera acuminata K.Koch
 Monstera adansonii Schott
@@ -699,7 +717,7 @@
 Monstera tuberculata Lundell
 Monstera vasquezii Croat
 Monstera xanthospatha Madison
-Selon Tropicos                                           (22 juillet 2023)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 juillet 2023) (Attention liste brute contenant possiblement des synonymes) :
 Monstera acacoyaguensis Matuda
 Monstera acostae Croat
 Monstera acreana K. Krause
